--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01BF30-02CC-4BE5-98E3-DC9FD6A4ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF466C-312D-45DA-B78B-07A5E8FE1690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -219,12 +219,6 @@
     <t>p_macroscopique_hemat</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_202311_2_child</t>
-  </si>
-  <si>
-    <t>(2023 Nov) - 2. SCH/STH – Participant</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>Refused</t>
   </si>
   <si>
-    <t>Femaile</t>
-  </si>
-  <si>
     <t>In.the.school.toilets</t>
   </si>
   <si>
@@ -321,9 +312,6 @@
     <t>I.always.forget</t>
   </si>
   <si>
-    <t>I.don't.think.it.matters</t>
-  </si>
-  <si>
     <t>Laundry,.dishes</t>
   </si>
   <si>
@@ -487,6 +475,21 @@
   </si>
   <si>
     <t>Select ward</t>
+  </si>
+  <si>
+    <t>(2023 Nov) - 2. SCH/STH – Participant V1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_2_child_v1</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>I.don.not.think.it.matters</t>
+  </si>
+  <si>
+    <t>The two digit code assigned to you</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -682,9 +685,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -698,9 +698,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,6 +728,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1013,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>4</v>
@@ -1070,26 +1070,28 @@
         <v>8</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>135</v>
+      <c r="C2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1107,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1126,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1151,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1170,10 +1172,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1195,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -1209,10 +1211,10 @@
     </row>
     <row r="8" spans="1:13" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1221,36 +1223,36 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="A9" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1259,7 +1261,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1267,10 +1269,10 @@
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1279,7 +1281,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1293,10 +1295,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1314,21 +1316,21 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="25" t="s">
-        <v>141</v>
+      <c r="F13" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
@@ -1342,22 +1344,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>10</v>
@@ -1376,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
@@ -1387,7 +1389,7 @@
         <v>23</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9" t="s">
@@ -1404,14 +1406,14 @@
         <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
@@ -1420,7 +1422,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1428,16 +1430,16 @@
         <v>26</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9" t="s">
@@ -1454,14 +1456,14 @@
         <v>27</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
@@ -1474,18 +1476,18 @@
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
@@ -1499,37 +1501,37 @@
       <c r="B20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>106</v>
+      <c r="C20" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="30" t="s">
-        <v>113</v>
+      <c r="H20" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>107</v>
+      <c r="C21" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
       <c r="H21" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -1543,8 +1545,8 @@
       <c r="B22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>108</v>
+      <c r="C22" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
@@ -1557,20 +1559,20 @@
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
+      <c r="A23" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
@@ -1579,7 +1581,7 @@
       <c r="B24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1597,7 +1599,7 @@
       <c r="B25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -1620,7 +1622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>36</v>
@@ -1658,10 +1660,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1669,10 +1671,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,10 +1687,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>82</v>
+        <v>143</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,10 +1698,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1707,10 +1709,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1718,10 +1720,10 @@
         <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,21 +1731,21 @@
         <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>96</v>
+      <c r="B10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1751,10 +1753,10 @@
         <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,32 +1764,32 @@
         <v>42</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>94</v>
+      <c r="B13" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>95</v>
+      <c r="B14" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1795,10 +1797,10 @@
         <v>43</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1806,10 +1808,10 @@
         <v>44</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,10 +1819,10 @@
         <v>44</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,10 +1830,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,10 +1841,10 @@
         <v>45</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,10 +1852,10 @@
         <v>45</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,10 +1863,10 @@
         <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,10 +1874,10 @@
         <v>45</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,10 +1885,10 @@
         <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,10 +1896,10 @@
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,10 +1907,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,10 +1918,10 @@
         <v>46</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,10 +1929,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,10 +1940,10 @@
         <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,20 +1951,20 @@
         <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1970,10 +1972,10 @@
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1981,10 +1983,10 @@
       <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4043,7 +4045,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4065,13 +4067,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF466C-312D-45DA-B78B-07A5E8FE1690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E7357-C75C-46CB-9C83-1CDD76A66B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
   <si>
     <t>type</t>
   </si>
@@ -393,9 +393,6 @@
     <t>begin repeat</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -477,12 +474,6 @@
     <t>Select ward</t>
   </si>
   <si>
-    <t>(2023 Nov) - 2. SCH/STH – Participant V1</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_2_child_v1</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -490,6 +481,18 @@
   </si>
   <si>
     <t>The two digit code assigned to you</t>
+  </si>
+  <si>
+    <t>(2023 Nov) - 2. SCH/STH – Participant V1.1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_2_child_v1_1</t>
+  </si>
+  <si>
+    <t>p_1_1</t>
+  </si>
+  <si>
+    <t>Participants</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:G2"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1029,7 @@
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
     <col min="12" max="12" width="36.625" customWidth="1"/>
@@ -1040,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>2</v>
@@ -1052,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>4</v>
@@ -1070,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1084,14 +1087,14 @@
         <v>105</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1109,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1131,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1153,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1172,10 +1175,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1209,12 +1212,12 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1222,8 +1225,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
-        <v>136</v>
+      <c r="I8" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1234,9 +1237,11 @@
         <v>112</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="30"/>
+        <v>145</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>146</v>
+      </c>
       <c r="D9" s="30"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -1249,10 +1254,10 @@
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1261,7 +1266,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1269,10 +1274,10 @@
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1281,7 +1286,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1313,21 +1318,21 @@
     </row>
     <row r="13" spans="1:13" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
       <c r="F13" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>108</v>
@@ -1344,13 +1349,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="24"/>
@@ -1359,7 +1364,7 @@
         <v>108</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>10</v>
@@ -1560,7 +1565,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
@@ -1640,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>36</v>
@@ -1687,10 +1692,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1830,7 +1835,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>68</v>
@@ -4045,7 +4050,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4067,10 +4072,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E7357-C75C-46CB-9C83-1CDD76A66B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86BAF42-0E94-4D27-A1D1-52449C19C2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>. &gt;= 5 and . &lt;= 14</t>
   </si>
   <si>
-    <t>L’âge doit être compris entre 4 et 15 ans</t>
-  </si>
-  <si>
     <t>select_one sex</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>Participants</t>
+  </si>
+  <si>
+    <t>Age must be between 4 and 15 years old</t>
   </si>
 </sst>
 </file>
@@ -1012,11 +1012,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1043,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>4</v>
@@ -1073,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1084,17 +1084,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>130</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1112,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1131,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1156,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1175,10 +1175,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1200,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="8" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1226,7 +1226,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="9" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>145</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>146</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="29"/>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1266,7 +1266,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1286,7 +1286,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1300,10 +1300,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1321,21 +1321,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
       <c r="F13" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
@@ -1344,27 +1344,27 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="24"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
@@ -1391,10 +1391,10 @@
         <v>22</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9" t="s">
@@ -1405,20 +1405,20 @@
     </row>
     <row r="16" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="21"/>
       <c r="H16" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
@@ -1432,19 +1432,19 @@
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="21"/>
       <c r="H17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9" t="s">
@@ -1458,17 +1458,17 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="21"/>
       <c r="H18" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
@@ -1482,17 +1482,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="21"/>
       <c r="H19" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
@@ -1504,17 +1504,17 @@
         <v>14</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
       <c r="H20" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -1526,17 +1526,17 @@
         <v>14</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
       <c r="H21" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -1548,10 +1548,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="12"/>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="12"/>
@@ -1625,9 +1625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G439"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1639,47 +1639,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,310 +1689,310 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="C30" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4061,24 +4061,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF39DA3-B2EA-4C39-A73A-6A7BC8A9E1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A95A0A-B6D4-4DE9-8FE7-C712817B0E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="246">
   <si>
     <t>type</t>
   </si>
@@ -1336,11 +1336,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1617,9 @@
         <v>121</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -2288,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A95A0A-B6D4-4DE9-8FE7-C712817B0E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49A308C-6A22-49DB-BBDB-529276AA2CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
   <si>
     <t>type</t>
   </si>
@@ -178,9 +178,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>p_macroscopique_hemat</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>Was a urine sample taken from this child?</t>
   </si>
   <si>
-    <t>Is the urine macroscopically hematuric?</t>
-  </si>
-  <si>
     <t>You have just entered a value which will end the survey</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t>Swahili</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_202311_2_child_v2</t>
-  </si>
-  <si>
     <t>label::Swahili</t>
   </si>
   <si>
@@ -532,12 +523,6 @@
     <t>Sikumbuki</t>
   </si>
   <si>
-    <t>tz_202401_2</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 2. SCH/STH – Participant V2</t>
-  </si>
-  <si>
     <t>constraint_message::Swahili</t>
   </si>
   <si>
@@ -709,9 +694,6 @@
     <t>selected(${p_not_collected_urine}, 'other' )</t>
   </si>
   <si>
-    <t>${p_assent} = 'Gave'  and ${p_collected_urine} = 'Yes'</t>
-  </si>
-  <si>
     <t>select_one treat</t>
   </si>
   <si>
@@ -773,6 +755,39 @@
   </si>
   <si>
     <t>Do not remember</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 2. SCH/STH – Participant V3</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_2_child_v3</t>
+  </si>
+  <si>
+    <t>tz_202401_3</t>
+  </si>
+  <si>
+    <t>select one grade</t>
+  </si>
+  <si>
+    <t>p_grade</t>
+  </si>
+  <si>
+    <t>Select grade</t>
+  </si>
+  <si>
+    <t>Chagua darasa</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>grade4</t>
+  </si>
+  <si>
+    <t>grade5</t>
+  </si>
+  <si>
+    <t>grade6</t>
   </si>
 </sst>
 </file>
@@ -839,7 +854,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,6 +907,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -948,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1030,14 +1057,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1058,7 +1083,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1337,10 +1377,10 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,16 +1407,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>2</v>
@@ -1385,10 +1425,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>4</v>
@@ -1406,7 +1446,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1417,26 +1457,26 @@
         <v>9</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>170</v>
+        <v>118</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>175</v>
+        <v>110</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -1454,17 +1494,17 @@
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="36"/>
+      <c r="E3" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8" t="s">
@@ -1478,20 +1518,20 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="36"/>
+      <c r="E4" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="34"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
@@ -1508,17 +1548,17 @@
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="36"/>
+      <c r="E5" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="34"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
@@ -1532,20 +1572,20 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="34"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8" t="s">
@@ -1562,21 +1602,21 @@
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1585,22 +1625,22 @@
     </row>
     <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1608,17 +1648,17 @@
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
@@ -1633,22 +1673,22 @@
     </row>
     <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -1656,22 +1696,22 @@
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1685,21 +1725,21 @@
         <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>182</v>
+        <v>94</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
@@ -1710,29 +1750,29 @@
     </row>
     <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>182</v>
+        <v>94</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="39"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
@@ -1741,40 +1781,34 @@
       <c r="N13" s="8"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="8"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="7"/>
       <c r="M14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1784,25 +1818,25 @@
         <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="36"/>
+      <c r="E15" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="34"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="8" t="s">
@@ -1811,60 +1845,60 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8" t="s">
+    <row r="16" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>201</v>
+        <v>95</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>196</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="41"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8" t="s">
@@ -1875,25 +1909,25 @@
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="E18" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="34"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="41"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
@@ -1907,26 +1941,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="8" t="s">
@@ -1937,25 +1971,25 @@
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="36"/>
+      <c r="E20" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="34"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="41"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="8" t="s">
@@ -1966,25 +2000,25 @@
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="36"/>
+      <c r="E21" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="34"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="41"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
@@ -1998,26 +2032,26 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="41"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="8" t="s">
@@ -2026,54 +2060,62 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="E23" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="36"/>
+      <c r="E24" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="34"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="41"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8" t="s">
@@ -2084,25 +2126,25 @@
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="36"/>
+      <c r="E25" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="34"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="41"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="8" t="s">
@@ -2113,25 +2155,25 @@
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="36"/>
+      <c r="E26" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="34"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="41"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="8" t="s">
@@ -2148,19 +2190,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="37"/>
+      <c r="E27" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="35"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="42"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="22" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -2175,19 +2217,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" s="37"/>
+      <c r="E28" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="35"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="42"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -2202,17 +2244,17 @@
         <v>27</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="37"/>
+      <c r="E29" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="35"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="7"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -2221,7 +2263,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
@@ -2247,12 +2289,12 @@
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="7"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -2268,12 +2310,12 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="7"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -2288,19 +2330,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D439"/>
+  <dimension ref="A1:F439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="46.125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,13 +2364,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>125</v>
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,13 +2378,13 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>126</v>
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,13 +2397,13 @@
         <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>127</v>
+        <v>116</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2369,13 +2411,13 @@
         <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,13 +2425,13 @@
         <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>129</v>
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2397,13 +2439,13 @@
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>130</v>
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,13 +2453,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>131</v>
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,13 +2467,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>132</v>
+      <c r="C10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,13 +2481,13 @@
         <v>35</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>133</v>
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,13 +2495,13 @@
         <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>134</v>
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,13 +2509,13 @@
         <v>36</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>135</v>
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,13 +2523,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>136</v>
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2495,13 +2537,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>126</v>
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2509,13 +2551,13 @@
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>137</v>
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2523,13 +2565,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>138</v>
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2537,13 +2579,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>139</v>
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,13 +2593,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,13 +2607,13 @@
         <v>38</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>141</v>
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2579,13 +2621,13 @@
         <v>38</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>142</v>
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,13 +2635,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>143</v>
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,13 +2649,13 @@
         <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,13 +2663,13 @@
         <v>38</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>145</v>
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,13 +2677,13 @@
         <v>38</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>146</v>
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,13 +2691,13 @@
         <v>39</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>147</v>
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,87 +2705,87 @@
         <v>39</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>148</v>
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>149</v>
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>148</v>
+      <c r="D29" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="D31" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -2752,1751 +2794,1783 @@
       <c r="C33" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="A35" s="10"/>
+      <c r="B35"/>
+      <c r="C35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="31" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C37" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="31" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="31" t="s">
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D45" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
+      <c r="B46"/>
+      <c r="C46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>190</v>
+      <c r="A47" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
+      <c r="A48" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4">
+        <v>5</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="4">
+        <v>6</v>
+      </c>
+      <c r="D52" s="4">
+        <v>6</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64"/>
+      <c r="C64"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
+      <c r="B65"/>
+      <c r="C65"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
+      <c r="B66"/>
+      <c r="C66"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
+      <c r="B67"/>
+      <c r="C67"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="B68"/>
+      <c r="C68"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
+      <c r="B69"/>
+      <c r="C69"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
+      <c r="B70"/>
+      <c r="C70"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
+      <c r="B71"/>
+      <c r="C71"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
+      <c r="B72"/>
+      <c r="C72"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
+      <c r="B73"/>
+      <c r="C73"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
+      <c r="B74"/>
+      <c r="C74"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
+      <c r="B75"/>
+      <c r="C75"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="B76"/>
+      <c r="C76"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
+      <c r="B77"/>
+      <c r="C77"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
+      <c r="B78"/>
+      <c r="C78"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
+      <c r="B79"/>
+      <c r="C79"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
+      <c r="B80"/>
+      <c r="C80"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
+      <c r="B81"/>
+      <c r="C81"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
+      <c r="B82"/>
+      <c r="C82"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+      <c r="B83"/>
+      <c r="C83"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
+      <c r="B84"/>
+      <c r="C84"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
+      <c r="B85"/>
+      <c r="C85"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
+      <c r="B86"/>
+      <c r="C86"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87"/>
+      <c r="C87"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
+      <c r="B88"/>
+      <c r="C88"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
+      <c r="B89"/>
+      <c r="C89"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
+      <c r="B90"/>
+      <c r="C90"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
+      <c r="B91"/>
+      <c r="C91"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
+      <c r="B92"/>
+      <c r="C92"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
+      <c r="B93"/>
+      <c r="C93"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
+      <c r="B94"/>
+      <c r="C94"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
+      <c r="B95"/>
+      <c r="C95"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+      <c r="B96"/>
+      <c r="C96"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
+      <c r="B97"/>
+      <c r="C97"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
+      <c r="B98"/>
+      <c r="C98"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
+      <c r="B99"/>
+      <c r="C99"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
+      <c r="B100"/>
+      <c r="C100"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
+      <c r="B101"/>
+      <c r="C101"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
+      <c r="B102"/>
+      <c r="C102"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
+      <c r="B103"/>
+      <c r="C103"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
+      <c r="B104"/>
+      <c r="C104"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
+      <c r="B105"/>
+      <c r="C105"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
+      <c r="B106"/>
+      <c r="C106"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
+      <c r="B107"/>
+      <c r="C107"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
+      <c r="B108"/>
+      <c r="C108"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
+      <c r="B109"/>
+      <c r="C109"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
+      <c r="B110"/>
+      <c r="C110"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
+      <c r="B111"/>
+      <c r="C111"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
+      <c r="B112"/>
+      <c r="C112"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
+      <c r="B113"/>
+      <c r="C113"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
+      <c r="B114"/>
+      <c r="C114"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
+      <c r="B115"/>
+      <c r="C115"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
+      <c r="B116"/>
+      <c r="C116"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
+      <c r="B117"/>
+      <c r="C117"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
+      <c r="B118"/>
+      <c r="C118"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
+      <c r="B119"/>
+      <c r="C119"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
+      <c r="B120"/>
+      <c r="C120"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
+      <c r="B121"/>
+      <c r="C121"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
+      <c r="B122"/>
+      <c r="C122"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
+      <c r="B123"/>
+      <c r="C123"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
+      <c r="B124"/>
+      <c r="C124"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
+      <c r="B125"/>
+      <c r="C125"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
+      <c r="B126"/>
+      <c r="C126"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
+      <c r="B127"/>
+      <c r="C127"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
+      <c r="B128"/>
+      <c r="C128"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
+      <c r="B129"/>
+      <c r="C129"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
+      <c r="B130"/>
+      <c r="C130"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
+      <c r="B131"/>
+      <c r="C131"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
+      <c r="B132"/>
+      <c r="C132"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
+      <c r="B133"/>
+      <c r="C133"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
+      <c r="B134"/>
+      <c r="C134"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
+      <c r="B135"/>
+      <c r="C135"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
+      <c r="B136"/>
+      <c r="C136"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
+      <c r="B138"/>
+      <c r="C138"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
+      <c r="B139"/>
+      <c r="C139"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
+      <c r="B140"/>
+      <c r="C140"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
+      <c r="B141"/>
+      <c r="C141"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
+      <c r="B142"/>
+      <c r="C142"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
+      <c r="B143"/>
+      <c r="C143"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
+      <c r="B144"/>
+      <c r="C144"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
+      <c r="B145"/>
+      <c r="C145"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
+      <c r="B146"/>
+      <c r="C146"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
+      <c r="B147"/>
+      <c r="C147"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
+      <c r="B148"/>
+      <c r="C148"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
+      <c r="B149"/>
+      <c r="C149"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
+      <c r="B150"/>
+      <c r="C150"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
+      <c r="B151"/>
+      <c r="C151"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
+      <c r="B152"/>
+      <c r="C152"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
+      <c r="B153"/>
+      <c r="C153"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
+      <c r="B154"/>
+      <c r="C154"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
+      <c r="B155"/>
+      <c r="C155"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
+      <c r="B156"/>
+      <c r="C156"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="31"/>
-      <c r="C157" s="31"/>
+      <c r="B157"/>
+      <c r="C157"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="31"/>
-      <c r="C158" s="31"/>
+      <c r="B158"/>
+      <c r="C158"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
+      <c r="B159"/>
+      <c r="C159"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
+      <c r="B160"/>
+      <c r="C160"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
+      <c r="B161"/>
+      <c r="C161"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
+      <c r="B162"/>
+      <c r="C162"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
+      <c r="B163"/>
+      <c r="C163"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
+      <c r="B164"/>
+      <c r="C164"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
+      <c r="B165"/>
+      <c r="C165"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
+      <c r="B166"/>
+      <c r="C166"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
+      <c r="B167"/>
+      <c r="C167"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
+      <c r="B168"/>
+      <c r="C168"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
+      <c r="B169"/>
+      <c r="C169"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
+      <c r="B170"/>
+      <c r="C170"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
+      <c r="B171"/>
+      <c r="C171"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
+      <c r="B172"/>
+      <c r="C172"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
+      <c r="B173"/>
+      <c r="C173"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
+      <c r="B174"/>
+      <c r="C174"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
+      <c r="B175"/>
+      <c r="C175"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
+      <c r="B176"/>
+      <c r="C176"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
+      <c r="B177"/>
+      <c r="C177"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
+      <c r="B178"/>
+      <c r="C178"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
+      <c r="B179"/>
+      <c r="C179"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
+      <c r="B180"/>
+      <c r="C180"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
+      <c r="B181"/>
+      <c r="C181"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
+      <c r="B182"/>
+      <c r="C182"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
+      <c r="B183"/>
+      <c r="C183"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
+      <c r="B184"/>
+      <c r="C184"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="31"/>
-      <c r="C185" s="31"/>
+      <c r="B185"/>
+      <c r="C185"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
+      <c r="B186"/>
+      <c r="C186"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="31"/>
-      <c r="C187" s="31"/>
+      <c r="B187"/>
+      <c r="C187"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="31"/>
-      <c r="C188" s="31"/>
+      <c r="B188"/>
+      <c r="C188"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
+      <c r="B189"/>
+      <c r="C189"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
+      <c r="B190"/>
+      <c r="C190"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
+      <c r="B191"/>
+      <c r="C191"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
+      <c r="B192"/>
+      <c r="C192"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
+      <c r="B193"/>
+      <c r="C193"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
+      <c r="B194"/>
+      <c r="C194"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="31"/>
-      <c r="C195" s="31"/>
+      <c r="B195"/>
+      <c r="C195"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="31"/>
-      <c r="C196" s="31"/>
+      <c r="B196"/>
+      <c r="C196"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
+      <c r="B197"/>
+      <c r="C197"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="31"/>
-      <c r="C198" s="31"/>
+      <c r="B198"/>
+      <c r="C198"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
+      <c r="B199"/>
+      <c r="C199"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
+      <c r="B200"/>
+      <c r="C200"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
+      <c r="B201"/>
+      <c r="C201"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
+      <c r="B202"/>
+      <c r="C202"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="31"/>
-      <c r="C203" s="31"/>
+      <c r="B203"/>
+      <c r="C203"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="31"/>
-      <c r="C204" s="31"/>
+      <c r="B204"/>
+      <c r="C204"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="31"/>
-      <c r="C205" s="31"/>
+      <c r="B205"/>
+      <c r="C205"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
+      <c r="B206"/>
+      <c r="C206"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="31"/>
-      <c r="C207" s="31"/>
+      <c r="B207"/>
+      <c r="C207"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="31"/>
-      <c r="C208" s="31"/>
+      <c r="B208"/>
+      <c r="C208"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
+      <c r="B209"/>
+      <c r="C209"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="31"/>
-      <c r="C210" s="31"/>
+      <c r="B210"/>
+      <c r="C210"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
+      <c r="B211"/>
+      <c r="C211"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="31"/>
-      <c r="C212" s="31"/>
+      <c r="B212"/>
+      <c r="C212"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="31"/>
-      <c r="C213" s="31"/>
+      <c r="B213"/>
+      <c r="C213"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="31"/>
-      <c r="C214" s="31"/>
+      <c r="B214"/>
+      <c r="C214"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="31"/>
-      <c r="C215" s="31"/>
+      <c r="B215"/>
+      <c r="C215"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="31"/>
-      <c r="C216" s="31"/>
+      <c r="B216"/>
+      <c r="C216"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
+      <c r="B217"/>
+      <c r="C217"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="31"/>
-      <c r="C218" s="31"/>
+      <c r="B218"/>
+      <c r="C218"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="31"/>
-      <c r="C219" s="31"/>
+      <c r="B219"/>
+      <c r="C219"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="31"/>
-      <c r="C220" s="31"/>
+      <c r="B220"/>
+      <c r="C220"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
+      <c r="B221"/>
+      <c r="C221"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="31"/>
-      <c r="C222" s="31"/>
+      <c r="B222"/>
+      <c r="C222"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="31"/>
-      <c r="C223" s="31"/>
+      <c r="B223"/>
+      <c r="C223"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="31"/>
-      <c r="C224" s="31"/>
+      <c r="B224"/>
+      <c r="C224"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="31"/>
-      <c r="C225" s="31"/>
+      <c r="B225"/>
+      <c r="C225"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="31"/>
-      <c r="C226" s="31"/>
+      <c r="B226"/>
+      <c r="C226"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="31"/>
-      <c r="C227" s="31"/>
+      <c r="B227"/>
+      <c r="C227"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="31"/>
-      <c r="C228" s="31"/>
+      <c r="B228"/>
+      <c r="C228"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="31"/>
-      <c r="C229" s="31"/>
+      <c r="B229"/>
+      <c r="C229"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="31"/>
-      <c r="C230" s="31"/>
+      <c r="B230"/>
+      <c r="C230"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="31"/>
-      <c r="C231" s="31"/>
+      <c r="B231"/>
+      <c r="C231"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="31"/>
-      <c r="C232" s="31"/>
+      <c r="B232"/>
+      <c r="C232"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="31"/>
-      <c r="C233" s="31"/>
+      <c r="B233"/>
+      <c r="C233"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="31"/>
-      <c r="C234" s="31"/>
+      <c r="B234"/>
+      <c r="C234"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="31"/>
-      <c r="C235" s="31"/>
+      <c r="B235"/>
+      <c r="C235"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="31"/>
-      <c r="C236" s="31"/>
+      <c r="B236"/>
+      <c r="C236"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="31"/>
-      <c r="C237" s="31"/>
+      <c r="B237"/>
+      <c r="C237"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="31"/>
-      <c r="C238" s="31"/>
+      <c r="B238"/>
+      <c r="C238"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
+      <c r="B239"/>
+      <c r="C239"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="31"/>
-      <c r="C240" s="31"/>
+      <c r="B240"/>
+      <c r="C240"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="31"/>
-      <c r="C241" s="31"/>
+      <c r="B241"/>
+      <c r="C241"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="31"/>
-      <c r="C242" s="31"/>
+      <c r="B242"/>
+      <c r="C242"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="31"/>
-      <c r="C243" s="31"/>
+      <c r="B243"/>
+      <c r="C243"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="31"/>
-      <c r="C244" s="31"/>
+      <c r="B244"/>
+      <c r="C244"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="31"/>
-      <c r="C245" s="31"/>
+      <c r="B245"/>
+      <c r="C245"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="31"/>
-      <c r="C246" s="31"/>
+      <c r="B246"/>
+      <c r="C246"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="31"/>
-      <c r="C247" s="31"/>
+      <c r="B247"/>
+      <c r="C247"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="31"/>
-      <c r="C248" s="31"/>
+      <c r="B248"/>
+      <c r="C248"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="31"/>
-      <c r="C249" s="31"/>
+      <c r="B249"/>
+      <c r="C249"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="31"/>
-      <c r="C250" s="31"/>
+      <c r="B250"/>
+      <c r="C250"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="31"/>
-      <c r="C251" s="31"/>
+      <c r="B251"/>
+      <c r="C251"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="31"/>
-      <c r="C252" s="31"/>
+      <c r="B252"/>
+      <c r="C252"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="31"/>
-      <c r="C253" s="31"/>
+      <c r="B253"/>
+      <c r="C253"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="31"/>
-      <c r="C254" s="31"/>
+      <c r="B254"/>
+      <c r="C254"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B255" s="31"/>
-      <c r="C255" s="31"/>
+      <c r="B255"/>
+      <c r="C255"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="31"/>
-      <c r="C256" s="31"/>
+      <c r="B256"/>
+      <c r="C256"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B257" s="31"/>
-      <c r="C257" s="31"/>
+      <c r="B257"/>
+      <c r="C257"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B258" s="31"/>
-      <c r="C258" s="31"/>
+      <c r="B258"/>
+      <c r="C258"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="31"/>
-      <c r="C259" s="31"/>
+      <c r="B259"/>
+      <c r="C259"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="31"/>
-      <c r="C260" s="31"/>
+      <c r="B260"/>
+      <c r="C260"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="31"/>
-      <c r="C261" s="31"/>
+      <c r="B261"/>
+      <c r="C261"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="31"/>
-      <c r="C262" s="31"/>
+      <c r="B262"/>
+      <c r="C262"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="31"/>
-      <c r="C263" s="31"/>
+      <c r="B263"/>
+      <c r="C263"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B264" s="31"/>
-      <c r="C264" s="31"/>
+      <c r="B264"/>
+      <c r="C264"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B265" s="31"/>
-      <c r="C265" s="31"/>
+      <c r="B265"/>
+      <c r="C265"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B266" s="31"/>
-      <c r="C266" s="31"/>
+      <c r="B266"/>
+      <c r="C266"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B267" s="31"/>
-      <c r="C267" s="31"/>
+      <c r="B267"/>
+      <c r="C267"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B268" s="31"/>
-      <c r="C268" s="31"/>
+      <c r="B268"/>
+      <c r="C268"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B269" s="31"/>
-      <c r="C269" s="31"/>
+      <c r="B269"/>
+      <c r="C269"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B270" s="31"/>
-      <c r="C270" s="31"/>
+      <c r="B270"/>
+      <c r="C270"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B271" s="31"/>
-      <c r="C271" s="31"/>
+      <c r="B271"/>
+      <c r="C271"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B272" s="31"/>
-      <c r="C272" s="31"/>
+      <c r="B272"/>
+      <c r="C272"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="31"/>
-      <c r="C273" s="31"/>
+      <c r="B273"/>
+      <c r="C273"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B274" s="31"/>
-      <c r="C274" s="31"/>
+      <c r="B274"/>
+      <c r="C274"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B275" s="31"/>
-      <c r="C275" s="31"/>
+      <c r="B275"/>
+      <c r="C275"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B276" s="31"/>
-      <c r="C276" s="31"/>
+      <c r="B276"/>
+      <c r="C276"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B277" s="31"/>
-      <c r="C277" s="31"/>
+      <c r="B277"/>
+      <c r="C277"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="31"/>
-      <c r="C278" s="31"/>
+      <c r="B278"/>
+      <c r="C278"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B279" s="31"/>
-      <c r="C279" s="31"/>
+      <c r="B279"/>
+      <c r="C279"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B280" s="31"/>
-      <c r="C280" s="31"/>
+      <c r="B280"/>
+      <c r="C280"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B281" s="31"/>
-      <c r="C281" s="31"/>
+      <c r="B281"/>
+      <c r="C281"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B282" s="31"/>
-      <c r="C282" s="31"/>
+      <c r="B282"/>
+      <c r="C282"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B283" s="31"/>
-      <c r="C283" s="31"/>
+      <c r="B283"/>
+      <c r="C283"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B284" s="31"/>
-      <c r="C284" s="31"/>
+      <c r="B284"/>
+      <c r="C284"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B285" s="31"/>
-      <c r="C285" s="31"/>
+      <c r="B285"/>
+      <c r="C285"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B286" s="31"/>
-      <c r="C286" s="31"/>
+      <c r="B286"/>
+      <c r="C286"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B287" s="31"/>
-      <c r="C287" s="31"/>
+      <c r="B287"/>
+      <c r="C287"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B288" s="31"/>
-      <c r="C288" s="31"/>
+      <c r="B288"/>
+      <c r="C288"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B289" s="31"/>
-      <c r="C289" s="31"/>
+      <c r="B289"/>
+      <c r="C289"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B290" s="31"/>
-      <c r="C290" s="31"/>
+      <c r="B290"/>
+      <c r="C290"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B291" s="31"/>
-      <c r="C291" s="31"/>
+      <c r="B291"/>
+      <c r="C291"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B292" s="31"/>
-      <c r="C292" s="31"/>
+      <c r="B292"/>
+      <c r="C292"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B293" s="31"/>
-      <c r="C293" s="31"/>
+      <c r="B293"/>
+      <c r="C293"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B294" s="31"/>
-      <c r="C294" s="31"/>
+      <c r="B294"/>
+      <c r="C294"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B295" s="31"/>
-      <c r="C295" s="31"/>
+      <c r="B295"/>
+      <c r="C295"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B296" s="31"/>
-      <c r="C296" s="31"/>
+      <c r="B296"/>
+      <c r="C296"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B297" s="31"/>
-      <c r="C297" s="31"/>
+      <c r="B297"/>
+      <c r="C297"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B298" s="31"/>
-      <c r="C298" s="31"/>
+      <c r="B298"/>
+      <c r="C298"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B299" s="31"/>
-      <c r="C299" s="31"/>
+      <c r="B299"/>
+      <c r="C299"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B300" s="31"/>
-      <c r="C300" s="31"/>
+      <c r="B300"/>
+      <c r="C300"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B301" s="31"/>
-      <c r="C301" s="31"/>
+      <c r="B301"/>
+      <c r="C301"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B302" s="31"/>
-      <c r="C302" s="31"/>
+      <c r="B302"/>
+      <c r="C302"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" s="31"/>
-      <c r="C303" s="31"/>
+      <c r="B303"/>
+      <c r="C303"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B304" s="31"/>
-      <c r="C304" s="31"/>
+      <c r="B304"/>
+      <c r="C304"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" s="31"/>
-      <c r="C305" s="31"/>
+      <c r="B305"/>
+      <c r="C305"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B306" s="31"/>
-      <c r="C306" s="31"/>
+      <c r="B306"/>
+      <c r="C306"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" s="31"/>
-      <c r="C307" s="31"/>
+      <c r="B307"/>
+      <c r="C307"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B308" s="31"/>
-      <c r="C308" s="31"/>
+      <c r="B308"/>
+      <c r="C308"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B309" s="31"/>
-      <c r="C309" s="31"/>
+      <c r="B309"/>
+      <c r="C309"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B310" s="31"/>
-      <c r="C310" s="31"/>
+      <c r="B310"/>
+      <c r="C310"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B311" s="31"/>
-      <c r="C311" s="31"/>
+      <c r="B311"/>
+      <c r="C311"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B312" s="31"/>
-      <c r="C312" s="31"/>
+      <c r="B312"/>
+      <c r="C312"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B313" s="31"/>
-      <c r="C313" s="31"/>
+      <c r="B313"/>
+      <c r="C313"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B314" s="31"/>
-      <c r="C314" s="31"/>
+      <c r="B314"/>
+      <c r="C314"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B315" s="31"/>
-      <c r="C315" s="31"/>
+      <c r="B315"/>
+      <c r="C315"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B316" s="31"/>
-      <c r="C316" s="31"/>
+      <c r="B316"/>
+      <c r="C316"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B317" s="31"/>
-      <c r="C317" s="31"/>
+      <c r="B317"/>
+      <c r="C317"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B318" s="31"/>
-      <c r="C318" s="31"/>
+      <c r="B318"/>
+      <c r="C318"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B319" s="31"/>
-      <c r="C319" s="31"/>
+      <c r="B319"/>
+      <c r="C319"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B320" s="31"/>
-      <c r="C320" s="31"/>
+      <c r="B320"/>
+      <c r="C320"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B321" s="31"/>
-      <c r="C321" s="31"/>
+      <c r="B321"/>
+      <c r="C321"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B322" s="31"/>
-      <c r="C322" s="31"/>
+      <c r="B322"/>
+      <c r="C322"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B323" s="31"/>
-      <c r="C323" s="31"/>
+      <c r="B323"/>
+      <c r="C323"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B324" s="31"/>
-      <c r="C324" s="31"/>
+      <c r="B324"/>
+      <c r="C324"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B325" s="31"/>
-      <c r="C325" s="31"/>
+      <c r="B325"/>
+      <c r="C325"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B326" s="31"/>
-      <c r="C326" s="31"/>
+      <c r="B326"/>
+      <c r="C326"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B327" s="31"/>
-      <c r="C327" s="31"/>
+      <c r="B327"/>
+      <c r="C327"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B328" s="31"/>
-      <c r="C328" s="31"/>
+      <c r="B328"/>
+      <c r="C328"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B329" s="31"/>
-      <c r="C329" s="31"/>
+      <c r="B329"/>
+      <c r="C329"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B330" s="31"/>
-      <c r="C330" s="31"/>
+      <c r="B330"/>
+      <c r="C330"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B331" s="31"/>
-      <c r="C331" s="31"/>
+      <c r="B331"/>
+      <c r="C331"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B332" s="31"/>
-      <c r="C332" s="31"/>
+      <c r="B332"/>
+      <c r="C332"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B333" s="31"/>
-      <c r="C333" s="31"/>
+      <c r="B333"/>
+      <c r="C333"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B334" s="31"/>
-      <c r="C334" s="31"/>
+      <c r="B334"/>
+      <c r="C334"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B335" s="31"/>
-      <c r="C335" s="31"/>
+      <c r="B335"/>
+      <c r="C335"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B336" s="31"/>
-      <c r="C336" s="31"/>
+      <c r="B336"/>
+      <c r="C336"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B337" s="31"/>
-      <c r="C337" s="31"/>
+      <c r="B337"/>
+      <c r="C337"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B338" s="31"/>
-      <c r="C338" s="31"/>
+      <c r="B338"/>
+      <c r="C338"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B339" s="31"/>
-      <c r="C339" s="31"/>
+      <c r="B339"/>
+      <c r="C339"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B340" s="31"/>
-      <c r="C340" s="31"/>
+      <c r="B340"/>
+      <c r="C340"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B341" s="31"/>
-      <c r="C341" s="31"/>
+      <c r="B341"/>
+      <c r="C341"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B342" s="31"/>
-      <c r="C342" s="31"/>
+      <c r="B342"/>
+      <c r="C342"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B343" s="31"/>
-      <c r="C343" s="31"/>
+      <c r="B343"/>
+      <c r="C343"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B344" s="31"/>
-      <c r="C344" s="31"/>
+      <c r="B344"/>
+      <c r="C344"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B345" s="31"/>
-      <c r="C345" s="31"/>
+      <c r="B345"/>
+      <c r="C345"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B346" s="31"/>
-      <c r="C346" s="31"/>
+      <c r="B346"/>
+      <c r="C346"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B347" s="31"/>
-      <c r="C347" s="31"/>
+      <c r="B347"/>
+      <c r="C347"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B348" s="31"/>
-      <c r="C348" s="31"/>
+      <c r="B348"/>
+      <c r="C348"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B349" s="31"/>
-      <c r="C349" s="31"/>
+      <c r="B349"/>
+      <c r="C349"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B350" s="31"/>
-      <c r="C350" s="31"/>
+      <c r="B350"/>
+      <c r="C350"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B351" s="31"/>
-      <c r="C351" s="31"/>
+      <c r="B351"/>
+      <c r="C351"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B352" s="31"/>
-      <c r="C352" s="31"/>
+      <c r="B352"/>
+      <c r="C352"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="31"/>
-      <c r="C353" s="31"/>
+      <c r="B353"/>
+      <c r="C353"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="31"/>
-      <c r="C354" s="31"/>
+      <c r="B354"/>
+      <c r="C354"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B355" s="31"/>
-      <c r="C355" s="31"/>
+      <c r="B355"/>
+      <c r="C355"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B356" s="31"/>
-      <c r="C356" s="31"/>
+      <c r="B356"/>
+      <c r="C356"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B357" s="31"/>
-      <c r="C357" s="31"/>
+      <c r="B357"/>
+      <c r="C357"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B358" s="31"/>
-      <c r="C358" s="31"/>
+      <c r="B358"/>
+      <c r="C358"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B359" s="31"/>
-      <c r="C359" s="31"/>
+      <c r="B359"/>
+      <c r="C359"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B360" s="31"/>
-      <c r="C360" s="31"/>
+      <c r="B360"/>
+      <c r="C360"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B361" s="31"/>
-      <c r="C361" s="31"/>
+      <c r="B361"/>
+      <c r="C361"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B362" s="31"/>
-      <c r="C362" s="31"/>
+      <c r="B362"/>
+      <c r="C362"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B363" s="31"/>
-      <c r="C363" s="31"/>
+      <c r="B363"/>
+      <c r="C363"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B364" s="31"/>
-      <c r="C364" s="31"/>
+      <c r="B364"/>
+      <c r="C364"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B365" s="31"/>
-      <c r="C365" s="31"/>
+      <c r="B365"/>
+      <c r="C365"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B366" s="31"/>
-      <c r="C366" s="31"/>
+      <c r="B366"/>
+      <c r="C366"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B367" s="31"/>
-      <c r="C367" s="31"/>
+      <c r="B367"/>
+      <c r="C367"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B368" s="31"/>
-      <c r="C368" s="31"/>
+      <c r="B368"/>
+      <c r="C368"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B369" s="31"/>
-      <c r="C369" s="31"/>
+      <c r="B369"/>
+      <c r="C369"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B370" s="31"/>
-      <c r="C370" s="31"/>
+      <c r="B370"/>
+      <c r="C370"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B371" s="31"/>
-      <c r="C371" s="31"/>
+      <c r="B371"/>
+      <c r="C371"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B372" s="31"/>
-      <c r="C372" s="31"/>
+      <c r="B372"/>
+      <c r="C372"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B373" s="31"/>
-      <c r="C373" s="31"/>
+      <c r="B373"/>
+      <c r="C373"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B374" s="31"/>
-      <c r="C374" s="31"/>
+      <c r="B374"/>
+      <c r="C374"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B375" s="31"/>
-      <c r="C375" s="31"/>
+      <c r="B375"/>
+      <c r="C375"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B376" s="31"/>
-      <c r="C376" s="31"/>
+      <c r="B376"/>
+      <c r="C376"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B377" s="31"/>
-      <c r="C377" s="31"/>
+      <c r="B377"/>
+      <c r="C377"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B378" s="31"/>
-      <c r="C378" s="31"/>
+      <c r="B378"/>
+      <c r="C378"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B379" s="31"/>
-      <c r="C379" s="31"/>
+      <c r="B379"/>
+      <c r="C379"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B380" s="31"/>
-      <c r="C380" s="31"/>
+      <c r="B380"/>
+      <c r="C380"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B381" s="31"/>
-      <c r="C381" s="31"/>
+      <c r="B381"/>
+      <c r="C381"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B382" s="31"/>
-      <c r="C382" s="31"/>
+      <c r="B382"/>
+      <c r="C382"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B383" s="31"/>
-      <c r="C383" s="31"/>
+      <c r="B383"/>
+      <c r="C383"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B384" s="31"/>
-      <c r="C384" s="31"/>
+      <c r="B384"/>
+      <c r="C384"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B385" s="31"/>
-      <c r="C385" s="31"/>
+      <c r="B385"/>
+      <c r="C385"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B386" s="31"/>
-      <c r="C386" s="31"/>
+      <c r="B386"/>
+      <c r="C386"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B387" s="31"/>
-      <c r="C387" s="31"/>
+      <c r="B387"/>
+      <c r="C387"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B388" s="31"/>
-      <c r="C388" s="31"/>
+      <c r="B388"/>
+      <c r="C388"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B389" s="31"/>
-      <c r="C389" s="31"/>
+      <c r="B389"/>
+      <c r="C389"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B390" s="31"/>
-      <c r="C390" s="31"/>
+      <c r="B390"/>
+      <c r="C390"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B391" s="31"/>
-      <c r="C391" s="31"/>
+      <c r="B391"/>
+      <c r="C391"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B392" s="31"/>
-      <c r="C392" s="31"/>
+      <c r="B392"/>
+      <c r="C392"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B393" s="31"/>
-      <c r="C393" s="31"/>
+      <c r="B393"/>
+      <c r="C393"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B394" s="31"/>
-      <c r="C394" s="31"/>
+      <c r="B394"/>
+      <c r="C394"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B395" s="31"/>
-      <c r="C395" s="31"/>
+      <c r="B395"/>
+      <c r="C395"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B396" s="31"/>
-      <c r="C396" s="31"/>
+      <c r="B396"/>
+      <c r="C396"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B397" s="31"/>
-      <c r="C397" s="31"/>
+      <c r="B397"/>
+      <c r="C397"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B398" s="31"/>
-      <c r="C398" s="31"/>
+      <c r="B398"/>
+      <c r="C398"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B399" s="31"/>
-      <c r="C399" s="31"/>
+      <c r="B399"/>
+      <c r="C399"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B400" s="31"/>
-      <c r="C400" s="31"/>
+      <c r="B400"/>
+      <c r="C400"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B401" s="31"/>
-      <c r="C401" s="31"/>
+      <c r="B401"/>
+      <c r="C401"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B402" s="31"/>
-      <c r="C402" s="31"/>
+      <c r="B402"/>
+      <c r="C402"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B403" s="31"/>
-      <c r="C403" s="31"/>
+      <c r="B403"/>
+      <c r="C403"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B404" s="31"/>
-      <c r="C404" s="31"/>
+      <c r="B404"/>
+      <c r="C404"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B405" s="31"/>
-      <c r="C405" s="31"/>
+      <c r="B405"/>
+      <c r="C405"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B406" s="31"/>
-      <c r="C406" s="31"/>
+      <c r="B406"/>
+      <c r="C406"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B407" s="31"/>
-      <c r="C407" s="31"/>
+      <c r="B407"/>
+      <c r="C407"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B408" s="31"/>
-      <c r="C408" s="31"/>
+      <c r="B408"/>
+      <c r="C408"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B409" s="31"/>
-      <c r="C409" s="31"/>
+      <c r="B409"/>
+      <c r="C409"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B410" s="31"/>
-      <c r="C410" s="31"/>
+      <c r="B410"/>
+      <c r="C410"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B411" s="31"/>
-      <c r="C411" s="31"/>
+      <c r="B411"/>
+      <c r="C411"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B412" s="31"/>
-      <c r="C412" s="31"/>
+      <c r="B412"/>
+      <c r="C412"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B413" s="31"/>
-      <c r="C413" s="31"/>
+      <c r="B413"/>
+      <c r="C413"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B414" s="31"/>
-      <c r="C414" s="31"/>
+      <c r="B414"/>
+      <c r="C414"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B415" s="31"/>
-      <c r="C415" s="31"/>
+      <c r="B415"/>
+      <c r="C415"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B416" s="31"/>
-      <c r="C416" s="31"/>
+      <c r="B416"/>
+      <c r="C416"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B417" s="31"/>
-      <c r="C417" s="31"/>
+      <c r="B417"/>
+      <c r="C417"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B418" s="31"/>
-      <c r="C418" s="31"/>
+      <c r="B418"/>
+      <c r="C418"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B419" s="31"/>
-      <c r="C419" s="31"/>
+      <c r="B419"/>
+      <c r="C419"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B420" s="31"/>
-      <c r="C420" s="31"/>
+      <c r="B420"/>
+      <c r="C420"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B421" s="31"/>
-      <c r="C421" s="31"/>
+      <c r="B421"/>
+      <c r="C421"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B422" s="31"/>
-      <c r="C422" s="31"/>
+      <c r="B422"/>
+      <c r="C422"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B423" s="31"/>
-      <c r="C423" s="31"/>
+      <c r="B423"/>
+      <c r="C423"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B424" s="31"/>
-      <c r="C424" s="31"/>
+      <c r="B424"/>
+      <c r="C424"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B425" s="31"/>
-      <c r="C425" s="31"/>
+      <c r="B425"/>
+      <c r="C425"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B426" s="31"/>
-      <c r="C426" s="31"/>
+      <c r="B426"/>
+      <c r="C426"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B427" s="31"/>
-      <c r="C427" s="31"/>
+      <c r="B427"/>
+      <c r="C427"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B428" s="31"/>
-      <c r="C428" s="31"/>
+      <c r="B428"/>
+      <c r="C428"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B429" s="31"/>
-      <c r="C429" s="31"/>
+      <c r="B429"/>
+      <c r="C429"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B430" s="31"/>
-      <c r="C430" s="31"/>
+      <c r="B430"/>
+      <c r="C430"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B431" s="31"/>
-      <c r="C431" s="31"/>
+      <c r="B431"/>
+      <c r="C431"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B432" s="31"/>
-      <c r="C432" s="31"/>
+      <c r="B432"/>
+      <c r="C432"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B433" s="31"/>
-      <c r="C433" s="31"/>
+      <c r="B433"/>
+      <c r="C433"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B434" s="31"/>
-      <c r="C434" s="31"/>
+      <c r="B434"/>
+      <c r="C434"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B435" s="31"/>
-      <c r="C435" s="31"/>
+      <c r="B435"/>
+      <c r="C435"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B436" s="31"/>
-      <c r="C436" s="31"/>
+      <c r="B436"/>
+      <c r="C436"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B437" s="31"/>
-      <c r="C437" s="31"/>
+      <c r="B437"/>
+      <c r="C437"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B438" s="31"/>
-      <c r="C438" s="31"/>
+      <c r="B438"/>
+      <c r="C438"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B439" s="31"/>
-      <c r="C439" s="31"/>
+      <c r="B439"/>
+      <c r="C439"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4509,7 +4583,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4531,13 +4605,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A95A0A-B6D4-4DE9-8FE7-C712817B0E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09F8BBF-C659-462F-8294-B286DA910B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="191">
   <si>
     <t>type</t>
   </si>
@@ -142,33 +142,9 @@
     <t>sex</t>
   </si>
   <si>
-    <t>toilet_place</t>
-  </si>
-  <si>
-    <t>wash_hand</t>
-  </si>
-  <si>
-    <t>not_was_hand_reason</t>
-  </si>
-  <si>
-    <t>water_activity</t>
-  </si>
-  <si>
     <t>consent_list</t>
   </si>
   <si>
-    <t>grading</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>+++</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -178,9 +154,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>p_macroscopique_hemat</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -190,111 +163,12 @@
     <t>Male</t>
   </si>
   <si>
-    <t>In the school toilets</t>
-  </si>
-  <si>
-    <t>Around the school fence</t>
-  </si>
-  <si>
-    <t>Outside of school</t>
-  </si>
-  <si>
-    <t>Do not know</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Yes, with soap/ash</t>
-  </si>
-  <si>
-    <t>Yes, without soap/ash</t>
-  </si>
-  <si>
-    <t>Water not available at school</t>
-  </si>
-  <si>
-    <t>I always forget</t>
-  </si>
-  <si>
-    <t>I don't think it matters</t>
-  </si>
-  <si>
-    <t>Bathing</t>
-  </si>
-  <si>
-    <t>Laundry, dishes</t>
-  </si>
-  <si>
-    <t>Fishing</t>
-  </si>
-  <si>
-    <t>River crossing</t>
-  </si>
-  <si>
-    <t>Drawing water from streams</t>
-  </si>
-  <si>
-    <t>Play</t>
-  </si>
-  <si>
-    <t>Swim</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Hemolyzed trace</t>
-  </si>
-  <si>
     <t>Gave</t>
   </si>
   <si>
     <t>Refused</t>
   </si>
   <si>
-    <t>In.the.school.toilets</t>
-  </si>
-  <si>
-    <t>Around.the.school.fence</t>
-  </si>
-  <si>
-    <t>Outside.of.school</t>
-  </si>
-  <si>
-    <t>Do.not.know</t>
-  </si>
-  <si>
-    <t>Water.not.available.at.school</t>
-  </si>
-  <si>
-    <t>I.always.forget</t>
-  </si>
-  <si>
-    <t>Laundry,.dishes</t>
-  </si>
-  <si>
-    <t>River.crossing</t>
-  </si>
-  <si>
-    <t>Drawing.water.from.streams</t>
-  </si>
-  <si>
-    <t>Hemolyzed.trace</t>
-  </si>
-  <si>
-    <t>Yes.with.soap/ash</t>
-  </si>
-  <si>
-    <t>Yes.without.soap/ash</t>
-  </si>
-  <si>
-    <t>I wait/I hold it</t>
-  </si>
-  <si>
-    <t>I.wait/I.hold.it</t>
-  </si>
-  <si>
     <t>p_ward</t>
   </si>
   <si>
@@ -310,9 +184,6 @@
     <t>Was a urine sample taken from this child?</t>
   </si>
   <si>
-    <t>Is the urine macroscopically hematuric?</t>
-  </si>
-  <si>
     <t>You have just entered a value which will end the survey</t>
   </si>
   <si>
@@ -394,9 +265,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>I.don.not.think.it.matters</t>
-  </si>
-  <si>
     <t>The two digit code assigned to you</t>
   </si>
   <si>
@@ -406,9 +274,6 @@
     <t>Swahili</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_202311_2_child_v2</t>
-  </si>
-  <si>
     <t>label::Swahili</t>
   </si>
   <si>
@@ -424,60 +289,9 @@
     <t>Me</t>
   </si>
   <si>
-    <t>Katika vyoo vya shule</t>
-  </si>
-  <si>
-    <t>Karibu na uzio wa shule</t>
-  </si>
-  <si>
-    <t>Nje ya shule</t>
-  </si>
-  <si>
-    <t>Ninasubiri/ninajikaza</t>
-  </si>
-  <si>
-    <t>Sijui</t>
-  </si>
-  <si>
     <t>Nyingine</t>
   </si>
   <si>
-    <t>Ndio, na sabuni / majivu</t>
-  </si>
-  <si>
-    <t>Ndiyo, bila sabuni / majivu</t>
-  </si>
-  <si>
-    <t>Maji hayapatikani shuleni</t>
-  </si>
-  <si>
-    <t>Mimi husahau kila wakati</t>
-  </si>
-  <si>
-    <t>Sidhani kama ni muhimu</t>
-  </si>
-  <si>
-    <t>Kuoga</t>
-  </si>
-  <si>
-    <t>Kufulia, kuoshea vyombo</t>
-  </si>
-  <si>
-    <t>Uvuvi</t>
-  </si>
-  <si>
-    <t>Kuvukia mto</t>
-  </si>
-  <si>
-    <t>Kuchota maji kutoka kwenye chemchem</t>
-  </si>
-  <si>
-    <t>Kuchezea</t>
-  </si>
-  <si>
-    <t>Kuogelea</t>
-  </si>
-  <si>
     <t>Alikubali</t>
   </si>
   <si>
@@ -532,12 +346,6 @@
     <t>Sikumbuki</t>
   </si>
   <si>
-    <t>tz_202401_2</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 2. SCH/STH – Participant V2</t>
-  </si>
-  <si>
     <t>constraint_message::Swahili</t>
   </si>
   <si>
@@ -553,9 +361,6 @@
     <t>Chagua Wilaya</t>
   </si>
   <si>
-    <t>Changua kata</t>
-  </si>
-  <si>
     <t>Chagua jina la shule</t>
   </si>
   <si>
@@ -601,18 +406,6 @@
     <t>${p_consent} = 'Refused' or ${p_assent} = 'Refused'</t>
   </si>
   <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>Mannual</t>
-  </si>
-  <si>
-    <t>Scanner (Barcode / QR code)</t>
-  </si>
-  <si>
-    <t>id_type</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
@@ -625,12 +418,6 @@
     <t>. &gt;= 10 and . &lt;= 14</t>
   </si>
   <si>
-    <t>Age must be between 10 and 15 years old</t>
-  </si>
-  <si>
-    <t>Umri lazima uwe kati ya miaka 10 na 15</t>
-  </si>
-  <si>
     <t>Chagua jinsia ya mtoto</t>
   </si>
   <si>
@@ -709,21 +496,9 @@
     <t>selected(${p_not_collected_urine}, 'other' )</t>
   </si>
   <si>
-    <t>${p_assent} = 'Gave'  and ${p_collected_urine} = 'Yes'</t>
-  </si>
-  <si>
     <t>select_one treat</t>
   </si>
   <si>
-    <t>p_child_treat</t>
-  </si>
-  <si>
-    <t>Have you ever been treated with PZQ?</t>
-  </si>
-  <si>
-    <t>Je umewahi kumeza praziquantel?</t>
-  </si>
-  <si>
     <t>p_water_play</t>
   </si>
   <si>
@@ -772,14 +547,74 @@
     <t>Namba hii ya mtoto tayari ipo. Tafadhali hariri nambari ya mfuatano kutoka kwa swali lililotangulia</t>
   </si>
   <si>
-    <t>Do not remember</t>
+    <t>(2024 Jan) - 2. SCH/STH – Participant V4</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_2_child_v4</t>
+  </si>
+  <si>
+    <t>tz_202401_4</t>
+  </si>
+  <si>
+    <t>Chagua kata</t>
+  </si>
+  <si>
+    <t>Age must be between 10 and 14 years old</t>
+  </si>
+  <si>
+    <t>Umri lazima uwe miaka 10 hadi 14</t>
+  </si>
+  <si>
+    <t>Je umewahi kumeza dawa ya kichocho (praziquantel)?</t>
+  </si>
+  <si>
+    <t>p_child_treat_pzq</t>
+  </si>
+  <si>
+    <t>Have you ever been treated with Praziquantel?</t>
+  </si>
+  <si>
+    <t>p_child_treat_alb</t>
+  </si>
+  <si>
+    <t>Have you ever been treated with Albendazol?</t>
+  </si>
+  <si>
+    <t>Je umewahi kumeza dawa ya minyoo ya tumbo (Albendazol)?</t>
+  </si>
+  <si>
+    <t>select one grade</t>
+  </si>
+  <si>
+    <t>p_grade</t>
+  </si>
+  <si>
+    <t>Select grade</t>
+  </si>
+  <si>
+    <t>Chagua darasa</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>grade4</t>
+  </si>
+  <si>
+    <t>grade5</t>
+  </si>
+  <si>
+    <t>grade6</t>
+  </si>
+  <si>
+    <t>${p_assent} = 'Gave' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -838,8 +673,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,6 +733,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -948,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1031,13 +884,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1058,7 +904,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,13 +1204,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,16 +1237,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>2</v>
@@ -1385,10 +1255,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>4</v>
@@ -1406,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1417,26 +1287,26 @@
         <v>9</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>170</v>
+        <v>76</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>175</v>
+        <v>69</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -1454,17 +1324,17 @@
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="36"/>
+      <c r="E3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="33"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8" t="s">
@@ -1478,20 +1348,20 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="36"/>
+      <c r="E4" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="33"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
@@ -1508,17 +1378,17 @@
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="36"/>
+      <c r="E5" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="33"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
@@ -1532,20 +1402,20 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="33"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8" t="s">
@@ -1562,21 +1432,21 @@
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>179</v>
+        <v>112</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1585,22 +1455,22 @@
     </row>
     <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1608,17 +1478,17 @@
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
@@ -1633,22 +1503,22 @@
     </row>
     <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -1656,22 +1526,22 @@
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1685,21 +1555,21 @@
         <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>182</v>
+        <v>53</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
@@ -1710,29 +1580,29 @@
     </row>
     <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>182</v>
+        <v>53</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="39"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="8" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
@@ -1741,40 +1611,34 @@
       <c r="N13" s="8"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="8"/>
+      <c r="E14" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="7"/>
       <c r="M14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1784,25 +1648,25 @@
         <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="36"/>
+      <c r="E15" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="33"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>197</v>
+        <v>174</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="8" t="s">
@@ -1811,60 +1675,60 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8" t="s">
+    <row r="16" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>201</v>
+        <v>54</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="41"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8" t="s">
@@ -1875,25 +1739,25 @@
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="E18" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="33"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="41"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
@@ -1907,26 +1771,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>211</v>
+        <v>138</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="8" t="s">
@@ -1937,25 +1801,25 @@
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="36"/>
+      <c r="E20" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="33"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="41"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="8" t="s">
@@ -1966,25 +1830,25 @@
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="36"/>
+      <c r="E21" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="33"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="41"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="7" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
@@ -1998,26 +1862,26 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>211</v>
+        <v>138</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="41"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="8" t="s">
@@ -2026,54 +1890,62 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="41"/>
+      <c r="E23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>169</v>
+      </c>
       <c r="K23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>227</v>
+        <v>153</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>178</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="36"/>
+      <c r="E24" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="33"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="41"/>
+      <c r="J24" s="38"/>
       <c r="K24" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8" t="s">
@@ -2082,27 +1954,27 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>230</v>
+        <v>153</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="36"/>
+      <c r="E25" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="33"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="41"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="8" t="s">
@@ -2111,27 +1983,27 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="36"/>
+      <c r="E26" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="33"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="41"/>
+      <c r="J26" s="38"/>
       <c r="K26" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="8" t="s">
@@ -2140,145 +2012,174 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" s="37"/>
+      <c r="E28" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="34"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="7" t="s">
-        <v>98</v>
+      <c r="J28" s="39"/>
+      <c r="K28" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="37"/>
+      <c r="E29" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="34"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="7"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
+      <c r="A30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B32" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="7"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2288,11 +2189,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D439"/>
+  <dimension ref="A1:F391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2303,7 +2204,7 @@
     <col min="4" max="4" width="38.5" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -2311,632 +2212,427 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="32" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="C20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="D20" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>189</v>
-      </c>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
@@ -3098,10 +2794,6 @@
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-    </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
@@ -3290,6 +2982,10 @@
       <c r="B136" s="31"/>
       <c r="C136" s="31"/>
     </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+    </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="31"/>
       <c r="C138" s="31"/>
@@ -4305,198 +4001,6 @@
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="31"/>
       <c r="C391" s="31"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B392" s="31"/>
-      <c r="C392" s="31"/>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B393" s="31"/>
-      <c r="C393" s="31"/>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B394" s="31"/>
-      <c r="C394" s="31"/>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B395" s="31"/>
-      <c r="C395" s="31"/>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B396" s="31"/>
-      <c r="C396" s="31"/>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B397" s="31"/>
-      <c r="C397" s="31"/>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B398" s="31"/>
-      <c r="C398" s="31"/>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B399" s="31"/>
-      <c r="C399" s="31"/>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B400" s="31"/>
-      <c r="C400" s="31"/>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B401" s="31"/>
-      <c r="C401" s="31"/>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B402" s="31"/>
-      <c r="C402" s="31"/>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B403" s="31"/>
-      <c r="C403" s="31"/>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B404" s="31"/>
-      <c r="C404" s="31"/>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B405" s="31"/>
-      <c r="C405" s="31"/>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B406" s="31"/>
-      <c r="C406" s="31"/>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B407" s="31"/>
-      <c r="C407" s="31"/>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B408" s="31"/>
-      <c r="C408" s="31"/>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B409" s="31"/>
-      <c r="C409" s="31"/>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B410" s="31"/>
-      <c r="C410" s="31"/>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B411" s="31"/>
-      <c r="C411" s="31"/>
-    </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B412" s="31"/>
-      <c r="C412" s="31"/>
-    </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B413" s="31"/>
-      <c r="C413" s="31"/>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B414" s="31"/>
-      <c r="C414" s="31"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B415" s="31"/>
-      <c r="C415" s="31"/>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B416" s="31"/>
-      <c r="C416" s="31"/>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B417" s="31"/>
-      <c r="C417" s="31"/>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B418" s="31"/>
-      <c r="C418" s="31"/>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B419" s="31"/>
-      <c r="C419" s="31"/>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B420" s="31"/>
-      <c r="C420" s="31"/>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B421" s="31"/>
-      <c r="C421" s="31"/>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B422" s="31"/>
-      <c r="C422" s="31"/>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B423" s="31"/>
-      <c r="C423" s="31"/>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B424" s="31"/>
-      <c r="C424" s="31"/>
-    </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B425" s="31"/>
-      <c r="C425" s="31"/>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B426" s="31"/>
-      <c r="C426" s="31"/>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B427" s="31"/>
-      <c r="C427" s="31"/>
-    </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B428" s="31"/>
-      <c r="C428" s="31"/>
-    </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B429" s="31"/>
-      <c r="C429" s="31"/>
-    </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B430" s="31"/>
-      <c r="C430" s="31"/>
-    </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B431" s="31"/>
-      <c r="C431" s="31"/>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B432" s="31"/>
-      <c r="C432" s="31"/>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B433" s="31"/>
-      <c r="C433" s="31"/>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B434" s="31"/>
-      <c r="C434" s="31"/>
-    </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B435" s="31"/>
-      <c r="C435" s="31"/>
-    </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B436" s="31"/>
-      <c r="C436" s="31"/>
-    </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B437" s="31"/>
-      <c r="C437" s="31"/>
-    </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B438" s="31"/>
-      <c r="C438" s="31"/>
-    </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B439" s="31"/>
-      <c r="C439" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4509,7 +4013,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4520,24 +4024,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09F8BBF-C659-462F-8294-B286DA910B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17A7232-840A-4B36-91B2-034B13723AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -202,9 +202,6 @@
     <t>We do not want to go back if they do not give a sample because we cannot guarantee that there will be no exchange of samples.</t>
   </si>
   <si>
-    <t>${p_collected_stool} = 'No' and ${p_collected_urine} = 'No'</t>
-  </si>
-  <si>
     <t>begin repeat</t>
   </si>
   <si>
@@ -608,6 +605,12 @@
   </si>
   <si>
     <t>${p_assent} = 'Gave' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
+  </si>
+  <si>
+    <t>Do not remember</t>
+  </si>
+  <si>
+    <t>${p_collected_stool} = 'No' or ${p_collected_urine} = 'No'</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1213,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1237,16 +1240,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>2</v>
@@ -1255,10 +1258,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>4</v>
@@ -1276,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1290,23 +1293,23 @@
         <v>52</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>105</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="J2" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -1324,11 +1327,11 @@
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="7"/>
@@ -1351,11 +1354,11 @@
         <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="7"/>
@@ -1378,11 +1381,11 @@
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="7"/>
@@ -1402,14 +1405,14 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="7"/>
@@ -1432,16 +1435,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="F7" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>114</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1455,10 +1458,10 @@
     </row>
     <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1470,7 +1473,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1478,17 +1481,17 @@
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
@@ -1503,10 +1506,10 @@
     </row>
     <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1518,7 +1521,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -1526,10 +1529,10 @@
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1541,7 +1544,7 @@
       <c r="J11" s="36"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1555,16 +1558,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>116</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>117</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1580,29 +1583,29 @@
     </row>
     <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
       <c r="J13" s="36"/>
       <c r="K13" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
@@ -1623,7 +1626,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="7"/>
@@ -1631,7 +1634,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="38"/>
       <c r="K14" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="8" t="s">
@@ -1652,21 +1655,21 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>175</v>
-      </c>
       <c r="K15" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="8" t="s">
@@ -1677,17 +1680,17 @@
     </row>
     <row r="16" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="C16" s="42" t="s">
         <v>183</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>184</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="43"/>
@@ -1695,7 +1698,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="41" t="s">
@@ -1706,7 +1709,7 @@
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
@@ -1718,17 +1721,17 @@
         <v>54</v>
       </c>
       <c r="E17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="18"/>
       <c r="J17" s="38"/>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8" t="s">
@@ -1739,17 +1742,17 @@
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="7"/>
@@ -1757,7 +1760,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="38"/>
       <c r="K18" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
@@ -1771,26 +1774,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="F19" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>140</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="18"/>
       <c r="J19" s="38"/>
       <c r="K19" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="8" t="s">
@@ -1801,7 +1804,7 @@
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>24</v>
@@ -1811,7 +1814,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="7"/>
@@ -1819,7 +1822,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="38"/>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="8" t="s">
@@ -1830,17 +1833,17 @@
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="7"/>
@@ -1848,7 +1851,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="38"/>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
@@ -1862,26 +1865,26 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>151</v>
-      </c>
       <c r="F22" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="18"/>
       <c r="J22" s="38"/>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="8" t="s">
@@ -1892,31 +1895,31 @@
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="8"/>
       <c r="H23" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
@@ -1927,17 +1930,17 @@
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>177</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>178</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="7"/>
@@ -1945,7 +1948,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="38"/>
       <c r="K24" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8" t="s">
@@ -1956,17 +1959,17 @@
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>179</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>180</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="7"/>
@@ -1974,7 +1977,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="38"/>
       <c r="K25" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="8" t="s">
@@ -1985,17 +1988,17 @@
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="7"/>
@@ -2003,7 +2006,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="38"/>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="8" t="s">
@@ -2014,17 +2017,17 @@
     </row>
     <row r="27" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="7"/>
@@ -2032,7 +2035,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="38"/>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="8" t="s">
@@ -2053,7 +2056,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="10"/>
@@ -2061,7 +2064,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="39"/>
       <c r="K28" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="10"/>
@@ -2088,7 +2091,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="39"/>
       <c r="K29" s="7" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -2107,7 +2110,7 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="10"/>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
@@ -2193,7 +2196,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD15"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2212,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,7 +2232,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2243,7 +2246,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,13 +2260,13 @@
         <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2277,7 +2280,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,7 +2294,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,12 +2308,12 @@
         <v>43</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>42</v>
@@ -2319,12 +2322,12 @@
         <v>42</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -2333,7 +2336,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,96 +2347,96 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
@@ -2448,7 +2451,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>39</v>
@@ -2457,14 +2460,14 @@
         <v>39</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
@@ -2473,33 +2476,33 @@
         <v>40</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" t="s">
         <v>186</v>
-      </c>
-      <c r="B22" t="s">
-        <v>187</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2510,10 +2513,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
@@ -2525,10 +2528,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="4">
         <v>6</v>
@@ -4035,13 +4038,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>171</v>
-      </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17A7232-840A-4B36-91B2-034B13723AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C70555-CADA-4DD0-970B-C23962C40B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,25 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5E4EF54E-1A7B-4FFC-A3CF-4CAF3F6650F2}</author>
+  </authors>
+  <commentList>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{5E4EF54E-1A7B-4FFC-A3CF-4CAF3F6650F2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed to select one
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="192">
   <si>
@@ -382,12 +401,6 @@
     <t>Has the parents or guardians given consent?</t>
   </si>
   <si>
-    <t>Je mzazi au mwalimu mkuu amesaini hati ya ushiriki?</t>
-  </si>
-  <si>
-    <t>Jibu "Hapana" litamaliza uchunguzi</t>
-  </si>
-  <si>
     <t>select_one assent_list</t>
   </si>
   <si>
@@ -427,9 +440,6 @@
     <t>Hatutaki kurejea ikiwa hawatatoa sampuli kwa sababu hatuwezi kuthibitisha kuwa hakutakuwa na kubadilishana sampuli.</t>
   </si>
   <si>
-    <t>select_multiple reason_not</t>
-  </si>
-  <si>
     <t>p_not_collected_stool</t>
   </si>
   <si>
@@ -466,9 +476,6 @@
     <t>${p_assent} = 'Gave'</t>
   </si>
   <si>
-    <t>select_multiple reason</t>
-  </si>
-  <si>
     <t>p_not_collected_urine</t>
   </si>
   <si>
@@ -502,18 +509,12 @@
     <t>Did you bathe, swim or play in nearby rivers, streams or ponds in the last week?</t>
   </si>
   <si>
-    <t>Je katika kipindi cha wiki iliyopita ulioga, kuogelea na kucheza katika mito, madimbwi au chemchem za maji zilizo karibu?</t>
-  </si>
-  <si>
     <t>p_water_fish</t>
   </si>
   <si>
     <t>Did you go fishing in nearby rivers, streams or ponds in the last week?</t>
   </si>
   <si>
-    <t>Je ulienda kufanya uvuvi katika mito, madimbwi au chemchem za maji zilizo karibu?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ${p_assent} = 'Gave'</t>
   </si>
   <si>
@@ -544,12 +545,6 @@
     <t>Namba hii ya mtoto tayari ipo. Tafadhali hariri nambari ya mfuatano kutoka kwa swali lililotangulia</t>
   </si>
   <si>
-    <t>(2024 Jan) - 2. SCH/STH – Participant V4</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_2_child_v4</t>
-  </si>
-  <si>
     <t>tz_202401_4</t>
   </si>
   <si>
@@ -611,6 +606,30 @@
   </si>
   <si>
     <t>${p_collected_stool} = 'No' or ${p_collected_urine} = 'No'</t>
+  </si>
+  <si>
+    <t>Je mzazi/mlezi amesaini hati ya ushiriki?</t>
+  </si>
+  <si>
+    <t>Jibu "Alikataa" litamaliza uchunguzi</t>
+  </si>
+  <si>
+    <t>select_one reason_not</t>
+  </si>
+  <si>
+    <t>select_one reason</t>
+  </si>
+  <si>
+    <t>Je katika kipindi cha wiki iliyopita ulioga, kuogelea na kucheza katika mito, madimbwi au chemchem za maji zilizo karibu na shuleni au nyumbani?</t>
+  </si>
+  <si>
+    <t>Je katika kipindi cha wiki iliyopita, ulienda kufanya uvuvi katika mito, madimbwi au chemchem za maji zilizo karibu na shuleni au nyumbani?</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 2. SCH/STH – Participant V4.1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_2_child_v4_1</t>
   </si>
 </sst>
 </file>
@@ -683,7 +702,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +769,18 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -804,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -932,6 +963,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,6 +984,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Novat, Ditrick" id="{548EDB60-603A-4E2D-92CB-E5FC21BC4A2E}" userId="S::dnovat@rti.org::1af5e137-0ebb-4b26-8e87-0ba29c3c2fb9" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1205,15 +1248,24 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A18" dT="2024-01-29T12:43:05.72" personId="{548EDB60-603A-4E2D-92CB-E5FC21BC4A2E}" id="{5E4EF54E-1A7B-4FFC-A3CF-4CAF3F6650F2}">
+    <text xml:space="preserve">Changed to select one
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1410,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="33" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="7"/>
@@ -1473,7 +1525,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1484,7 +1536,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>76</v>
@@ -1544,7 +1596,7 @@
       <c r="J11" s="36"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1563,11 +1615,11 @@
       <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>116</v>
+      <c r="E12" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>185</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1583,29 +1635,29 @@
     </row>
     <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>185</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
       <c r="J13" s="36"/>
       <c r="K13" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
@@ -1626,7 +1678,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="7"/>
@@ -1634,7 +1686,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="38"/>
       <c r="K14" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="8" t="s">
@@ -1655,21 +1707,21 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="8" t="s">
@@ -1680,17 +1732,17 @@
     </row>
     <row r="16" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="41" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="43"/>
@@ -1698,7 +1750,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="41" t="s">
@@ -1709,7 +1761,7 @@
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
@@ -1721,17 +1773,17 @@
         <v>54</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="18"/>
       <c r="J17" s="38"/>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8" t="s">
@@ -1741,18 +1793,18 @@
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>130</v>
+      <c r="A18" s="50" t="s">
+        <v>186</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="7"/>
@@ -1760,7 +1812,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="38"/>
       <c r="K18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
@@ -1774,26 +1826,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="F19" s="33" t="s">
         <v>136</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>139</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="18"/>
       <c r="J19" s="38"/>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="8" t="s">
@@ -1804,7 +1856,7 @@
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>24</v>
@@ -1814,7 +1866,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="7"/>
@@ -1822,7 +1874,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="38"/>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="8" t="s">
@@ -1832,18 +1884,18 @@
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>143</v>
+      <c r="A21" s="50" t="s">
+        <v>187</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="7"/>
@@ -1851,7 +1903,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="38"/>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
@@ -1865,26 +1917,26 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="18"/>
       <c r="J22" s="38"/>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="8" t="s">
@@ -1895,31 +1947,31 @@
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="8"/>
       <c r="H23" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
@@ -1930,17 +1982,17 @@
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="33" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="7"/>
@@ -1948,7 +2000,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="38"/>
       <c r="K24" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8" t="s">
@@ -1959,17 +2011,17 @@
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="33" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="7"/>
@@ -1977,7 +2029,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="38"/>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="8" t="s">
@@ -1988,17 +2040,17 @@
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="33" t="s">
-        <v>155</v>
+      <c r="E26" s="49" t="s">
+        <v>188</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="7"/>
@@ -2006,7 +2058,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="38"/>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="8" t="s">
@@ -2015,19 +2067,19 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="33" t="s">
-        <v>158</v>
+      <c r="E27" s="49" t="s">
+        <v>189</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="7"/>
@@ -2035,7 +2087,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="38"/>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="8" t="s">
@@ -2056,7 +2108,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="10"/>
@@ -2064,7 +2116,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="39"/>
       <c r="K28" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -2083,7 +2135,7 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="10"/>
@@ -2091,7 +2143,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="39"/>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -2110,7 +2162,7 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="10"/>
@@ -2187,6 +2239,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2196,7 +2249,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2486,7 +2539,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>100</v>
@@ -2499,10 +2552,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2513,10 +2566,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
@@ -2528,10 +2581,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4">
         <v>6</v>
@@ -4015,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4038,10 +4091,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
